--- a/Projections/Win_Projections_13-May-2025.xlsx
+++ b/Projections/Win_Projections_13-May-2025.xlsx
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>103.6</v>
+        <v>103.9</v>
       </c>
       <c r="C5">
-        <v>120.3</v>
+        <v>122.2</v>
       </c>
       <c r="D5">
-        <v>83.40000000000001</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
@@ -466,45 +466,45 @@
         </is>
       </c>
       <c r="B7">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>117.8</v>
+        <v>120</v>
       </c>
       <c r="D7">
-        <v>76.5</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Philadelphia Phillies</t>
+          <t>Chicago Cubs</t>
         </is>
       </c>
       <c r="B8">
-        <v>94.5</v>
+        <v>95.2</v>
       </c>
       <c r="C8">
-        <v>114.6</v>
+        <v>121.7</v>
       </c>
       <c r="D8">
-        <v>73.5</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chicago Cubs</t>
+          <t>Philadelphia Phillies</t>
         </is>
       </c>
       <c r="B9">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="C9">
-        <v>122</v>
+        <v>114.6</v>
       </c>
       <c r="D9">
-        <v>67.09999999999999</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="10">
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>88.7</v>
+        <v>88.2</v>
       </c>
       <c r="C11">
-        <v>102.2</v>
+        <v>101.8</v>
       </c>
       <c r="D11">
-        <v>74.2</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="12">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C13">
-        <v>102.3</v>
+        <v>102.7</v>
       </c>
       <c r="D13">
-        <v>68.09999999999999</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -578,13 +578,13 @@
         </is>
       </c>
       <c r="B14">
-        <v>84.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C14">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="D14">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -594,45 +594,45 @@
         </is>
       </c>
       <c r="B15">
-        <v>80.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="C15">
         <v>100.8</v>
       </c>
       <c r="D15">
-        <v>60.4</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kansas City Royals</t>
+          <t>Cleveland Guardians</t>
         </is>
       </c>
       <c r="B16">
-        <v>79.3</v>
+        <v>80</v>
       </c>
       <c r="C16">
-        <v>94.2</v>
+        <v>97.7</v>
       </c>
       <c r="D16">
-        <v>64.8</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cleveland Guardians</t>
+          <t>Kansas City Royals</t>
         </is>
       </c>
       <c r="B17">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>95.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="D17">
-        <v>62.2</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="B20">
-        <v>72.3</v>
+        <v>72.8</v>
       </c>
       <c r="C20">
-        <v>86.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="D20">
-        <v>59.3</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="21">
@@ -702,33 +702,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chicago White Sox</t>
+          <t>Toronto Blue Jays</t>
         </is>
       </c>
       <c r="B22">
-        <v>71.2</v>
+        <v>70.7</v>
       </c>
       <c r="C22">
-        <v>109.6</v>
+        <v>95.2</v>
       </c>
       <c r="D22">
-        <v>35.2</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Toronto Blue Jays</t>
+          <t>Chicago White Sox</t>
         </is>
       </c>
       <c r="B23">
-        <v>71.09999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="C23">
-        <v>95.59999999999999</v>
+        <v>105.4</v>
       </c>
       <c r="D23">
-        <v>48.6</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="24">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="B24">
-        <v>71</v>
+        <v>70.5</v>
       </c>
       <c r="C24">
-        <v>100.7</v>
+        <v>103.4</v>
       </c>
       <c r="D24">
-        <v>42.2</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="25">
@@ -754,13 +754,13 @@
         </is>
       </c>
       <c r="B25">
-        <v>69.2</v>
+        <v>70.5</v>
       </c>
       <c r="C25">
-        <v>90.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="D25">
-        <v>48.5</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="26">
@@ -786,13 +786,13 @@
         </is>
       </c>
       <c r="B27">
-        <v>64.40000000000001</v>
+        <v>63.4</v>
       </c>
       <c r="C27">
-        <v>79.3</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>50.7</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="28">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B28">
-        <v>63.8</v>
+        <v>63.2</v>
       </c>
       <c r="C28">
-        <v>77.3</v>
+        <v>75.3</v>
       </c>
       <c r="D28">
-        <v>51.8</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="29">
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="B30">
-        <v>57.6</v>
+        <v>56.9</v>
       </c>
       <c r="C30">
-        <v>69.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="D30">
-        <v>47.1</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="31">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="B31">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="C31">
-        <v>48.7</v>
+        <v>49.1</v>
       </c>
       <c r="D31">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
     </row>
   </sheetData>
